--- a/biology/Médecine/Société_médico-psychologique/Société_médico-psychologique.xlsx
+++ b/biology/Médecine/Société_médico-psychologique/Société_médico-psychologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_m%C3%A9dico-psychologique</t>
+          <t>Société_médico-psychologique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société médico-psychologique est une société savante psychiatrique, la première dans son genre en France et l'une des premières au monde.
-Son champ d’étude est consacré au psychisme humain et à ses troubles, à leur prévention et la recherche ainsi qu’aux apports des disciplines connexes. Les grandes découvertes (notamment les premières publications sur les neuroleptiques) et les principaux courants de la connaissance psychiatrique française, voire internationale, sont issus de ses activités. Tous ses travaux sont colligés dans sa revue les Annales Médico-Psychologiques, fondée en 1843 et éditée par Elsevier. Depuis sa fondation, elle a réuni les plus grands noms de la psychiatrie française à travers les représentants des divers modes de soin français : hôpitaux généraux, psychiatriques, militaires, psychiatres universitaires et libéraux. La plupart des chefs d’École et responsables d’enseignement ont appartenu à ses rangs[1]
+Son champ d’étude est consacré au psychisme humain et à ses troubles, à leur prévention et la recherche ainsi qu’aux apports des disciplines connexes. Les grandes découvertes (notamment les premières publications sur les neuroleptiques) et les principaux courants de la connaissance psychiatrique française, voire internationale, sont issus de ses activités. Tous ses travaux sont colligés dans sa revue les Annales Médico-Psychologiques, fondée en 1843 et éditée par Elsevier. Depuis sa fondation, elle a réuni les plus grands noms de la psychiatrie française à travers les représentants des divers modes de soin français : hôpitaux généraux, psychiatriques, militaires, psychiatres universitaires et libéraux. La plupart des chefs d’École et responsables d’enseignement ont appartenu à ses rangs
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_m%C3%A9dico-psychologique</t>
+          <t>Société_médico-psychologique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société fut fondée en 1847 par Jules Baillarger et fonctionne sans interruption depuis 1852[2]. Elle a célébré ses 170 ans les 12 et 13 mai 2022, dans le cadre de l'Académie nationale de médecine[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société fut fondée en 1847 par Jules Baillarger et fonctionne sans interruption depuis 1852. Elle a célébré ses 170 ans les 12 et 13 mai 2022, dans le cadre de l'Académie nationale de médecine.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_m%C3%A9dico-psychologique</t>
+          <t>Société_médico-psychologique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est composée de 600 membres environ : membres titulaires, honoraires, correspondants nationaux et associés étrangers. La plupart sont psychiatres et élus au scrutin secret par leurs pairs[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est composée de 600 membres environ : membres titulaires, honoraires, correspondants nationaux et associés étrangers. La plupart sont psychiatres et élus au scrutin secret par leurs pairs.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_m%C3%A9dico-psychologique</t>
+          <t>Société_médico-psychologique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Activités scientifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les activités scientifiques de la Société Médico-Psychologique se déroulent ainsi :
 Séances de communications libres ayant lieu une fois par mois au Centre hospitalier Sainte-Anne de Paris ;
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_m%C3%A9dico-psychologique</t>
+          <t>Société_médico-psychologique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Annales médico-psychologiques sont le bulletin officiel de la Société médico-psychologique, elles publient 10 fois par an, en langue française, des mémoires originaux intéressant la psychiatrie et tous les domaines de connaissance concernant la psychopathologie[4]. Créée en 1842 par Jules Baillarger, c’est la plus ancienne revue de psychiatrie du monde[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Annales médico-psychologiques sont le bulletin officiel de la Société médico-psychologique, elles publient 10 fois par an, en langue française, des mémoires originaux intéressant la psychiatrie et tous les domaines de connaissance concernant la psychopathologie. Créée en 1842 par Jules Baillarger, c’est la plus ancienne revue de psychiatrie du monde.
 </t>
         </is>
       </c>
